--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H2">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.77583495225271</v>
+        <v>8.882730333333333</v>
       </c>
       <c r="N2">
-        <v>8.77583495225271</v>
+        <v>26.648191</v>
       </c>
       <c r="O2">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="P2">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="Q2">
-        <v>111.9181681552569</v>
+        <v>257.2108503837742</v>
       </c>
       <c r="R2">
-        <v>111.9181681552569</v>
+        <v>2314.897653453968</v>
       </c>
       <c r="S2">
-        <v>0.324978127069698</v>
+        <v>0.5067924516890508</v>
       </c>
       <c r="T2">
-        <v>0.324978127069698</v>
+        <v>0.506792451689051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H3">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.6942360070977091</v>
+        <v>0.008116333333333333</v>
       </c>
       <c r="N3">
-        <v>0.6942360070977091</v>
+        <v>0.024349</v>
       </c>
       <c r="O3">
-        <v>0.07330842715726903</v>
+        <v>0.0008433110770878936</v>
       </c>
       <c r="P3">
-        <v>0.07330842715726903</v>
+        <v>0.0008433110770878937</v>
       </c>
       <c r="Q3">
-        <v>8.85358744832034</v>
+        <v>0.2350188422168889</v>
       </c>
       <c r="R3">
-        <v>8.85358744832034</v>
+        <v>2.115169579952</v>
       </c>
       <c r="S3">
-        <v>0.02570826805181036</v>
+        <v>0.0004630666826943975</v>
       </c>
       <c r="T3">
-        <v>0.02570826805181036</v>
+        <v>0.0004630666826943977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6827628451534</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H4">
-        <v>12.6827628451534</v>
+        <v>86.868848</v>
       </c>
       <c r="I4">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J4">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.77583495225271</v>
+        <v>0.7335180000000001</v>
       </c>
       <c r="N4">
-        <v>8.77583495225271</v>
+        <v>2.200554</v>
       </c>
       <c r="O4">
-        <v>0.926691572842731</v>
+        <v>0.07621469316727886</v>
       </c>
       <c r="P4">
-        <v>0.926691572842731</v>
+        <v>0.07621469316727887</v>
       </c>
       <c r="Q4">
-        <v>111.3018334676292</v>
+        <v>21.239954549088</v>
       </c>
       <c r="R4">
-        <v>111.3018334676292</v>
+        <v>191.159590941792</v>
       </c>
       <c r="S4">
-        <v>0.3231884686457371</v>
+        <v>0.04184990105835507</v>
       </c>
       <c r="T4">
-        <v>0.3231884686457371</v>
+        <v>0.04184990105835508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.6827628451534</v>
+        <v>12.691493</v>
       </c>
       <c r="H5">
-        <v>12.6827628451534</v>
+        <v>38.074479</v>
       </c>
       <c r="I5">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J5">
-        <v>0.3487551609585917</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6942360070977091</v>
+        <v>8.882730333333333</v>
       </c>
       <c r="N5">
-        <v>0.6942360070977091</v>
+        <v>26.648191</v>
       </c>
       <c r="O5">
-        <v>0.07330842715726903</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="P5">
-        <v>0.07330842715726903</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="Q5">
-        <v>8.804830636586477</v>
+        <v>112.7351098463877</v>
       </c>
       <c r="R5">
-        <v>8.804830636586477</v>
+        <v>1014.615988617489</v>
       </c>
       <c r="S5">
-        <v>0.02556669231285456</v>
+        <v>0.2221263318605685</v>
       </c>
       <c r="T5">
-        <v>0.02556669231285456</v>
+        <v>0.2221263318605685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.350677823994581</v>
+        <v>12.691493</v>
       </c>
       <c r="H6">
-        <v>0.350677823994581</v>
+        <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J6">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.77583495225271</v>
+        <v>0.008116333333333333</v>
       </c>
       <c r="N6">
-        <v>8.77583495225271</v>
+        <v>0.024349</v>
       </c>
       <c r="O6">
-        <v>0.926691572842731</v>
+        <v>0.0008433110770878936</v>
       </c>
       <c r="P6">
-        <v>0.926691572842731</v>
+        <v>0.0008433110770878937</v>
       </c>
       <c r="Q6">
-        <v>3.077490704791568</v>
+        <v>0.1030083876856667</v>
       </c>
       <c r="R6">
-        <v>3.077490704791568</v>
+        <v>0.9270754891709999</v>
       </c>
       <c r="S6">
-        <v>0.008936146666823302</v>
+        <v>0.0002029613963091522</v>
       </c>
       <c r="T6">
-        <v>0.008936146666823302</v>
+        <v>0.0002029613963091522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.350677823994581</v>
+        <v>12.691493</v>
       </c>
       <c r="H7">
-        <v>0.350677823994581</v>
+        <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J7">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6942360070977091</v>
+        <v>0.7335180000000001</v>
       </c>
       <c r="N7">
-        <v>0.6942360070977091</v>
+        <v>2.200554</v>
       </c>
       <c r="O7">
-        <v>0.07330842715726903</v>
+        <v>0.07621469316727886</v>
       </c>
       <c r="P7">
-        <v>0.07330842715726903</v>
+        <v>0.07621469316727887</v>
       </c>
       <c r="Q7">
-        <v>0.2434531723077111</v>
+        <v>9.309438562374002</v>
       </c>
       <c r="R7">
-        <v>0.2434531723077111</v>
+        <v>83.78494706136601</v>
       </c>
       <c r="S7">
-        <v>0.0007069178960826319</v>
+        <v>0.01834274559504251</v>
       </c>
       <c r="T7">
-        <v>0.0007069178960826319</v>
+        <v>0.01834274559504252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.5793725152376</v>
+        <v>0.4888703333333334</v>
       </c>
       <c r="H8">
-        <v>10.5793725152376</v>
+        <v>1.466611</v>
       </c>
       <c r="I8">
-        <v>0.290915379356994</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="J8">
-        <v>0.290915379356994</v>
+        <v>0.009270573592685367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.77583495225271</v>
+        <v>8.882730333333333</v>
       </c>
       <c r="N8">
-        <v>8.77583495225271</v>
+        <v>26.648191</v>
       </c>
       <c r="O8">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="P8">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="Q8">
-        <v>92.8428270921238</v>
+        <v>4.342503338966778</v>
       </c>
       <c r="R8">
-        <v>92.8428270921238</v>
+        <v>39.082530050701</v>
       </c>
       <c r="S8">
-        <v>0.2695888304604726</v>
+        <v>0.008556201693432504</v>
       </c>
       <c r="T8">
-        <v>0.2695888304604726</v>
+        <v>0.008556201693432504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.466611</v>
+      </c>
+      <c r="I9">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J9">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.008116333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.024349</v>
+      </c>
+      <c r="O9">
+        <v>0.0008433110770878936</v>
+      </c>
+      <c r="P9">
+        <v>0.0008433110770878937</v>
+      </c>
+      <c r="Q9">
+        <v>0.003967834582111111</v>
+      </c>
+      <c r="R9">
+        <v>0.035710511239</v>
+      </c>
+      <c r="S9">
+        <v>7.81797740167008E-06</v>
+      </c>
+      <c r="T9">
+        <v>7.817977401670082E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10.5793725152376</v>
-      </c>
-      <c r="H9">
-        <v>10.5793725152376</v>
-      </c>
-      <c r="I9">
-        <v>0.290915379356994</v>
-      </c>
-      <c r="J9">
-        <v>0.290915379356994</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.6942360070977091</v>
-      </c>
-      <c r="N9">
-        <v>0.6942360070977091</v>
-      </c>
-      <c r="O9">
-        <v>0.07330842715726903</v>
-      </c>
-      <c r="P9">
-        <v>0.07330842715726903</v>
-      </c>
-      <c r="Q9">
-        <v>7.344581332577798</v>
-      </c>
-      <c r="R9">
-        <v>7.344581332577798</v>
-      </c>
-      <c r="S9">
-        <v>0.02132654889652148</v>
-      </c>
-      <c r="T9">
-        <v>0.02132654889652148</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.466611</v>
+      </c>
+      <c r="I10">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J10">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7335180000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.200554</v>
+      </c>
+      <c r="O10">
+        <v>0.07621469316727886</v>
+      </c>
+      <c r="P10">
+        <v>0.07621469316727887</v>
+      </c>
+      <c r="Q10">
+        <v>0.3585951891660001</v>
+      </c>
+      <c r="R10">
+        <v>3.227356702494001</v>
+      </c>
+      <c r="S10">
+        <v>0.0007065539218511932</v>
+      </c>
+      <c r="T10">
+        <v>0.0007065539218511933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H11">
+        <v>31.790737</v>
+      </c>
+      <c r="I11">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J11">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.882730333333333</v>
+      </c>
+      <c r="N11">
+        <v>26.648191</v>
+      </c>
+      <c r="O11">
+        <v>0.9229419957556332</v>
+      </c>
+      <c r="P11">
+        <v>0.9229419957556332</v>
+      </c>
+      <c r="Q11">
+        <v>94.12951462297411</v>
+      </c>
+      <c r="R11">
+        <v>847.1656316067669</v>
+      </c>
+      <c r="S11">
+        <v>0.1854670105125813</v>
+      </c>
+      <c r="T11">
+        <v>0.1854670105125813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H12">
+        <v>31.790737</v>
+      </c>
+      <c r="I12">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J12">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008116333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.024349</v>
+      </c>
+      <c r="O12">
+        <v>0.0008433110770878936</v>
+      </c>
+      <c r="P12">
+        <v>0.0008433110770878937</v>
+      </c>
+      <c r="Q12">
+        <v>0.08600807280144444</v>
+      </c>
+      <c r="R12">
+        <v>0.7740726552129999</v>
+      </c>
+      <c r="S12">
+        <v>0.0001694650206826738</v>
+      </c>
+      <c r="T12">
+        <v>0.0001694650206826738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H13">
+        <v>31.790737</v>
+      </c>
+      <c r="I13">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J13">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7335180000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.200554</v>
+      </c>
+      <c r="O13">
+        <v>0.07621469316727886</v>
+      </c>
+      <c r="P13">
+        <v>0.07621469316727887</v>
+      </c>
+      <c r="Q13">
+        <v>7.773025940922001</v>
+      </c>
+      <c r="R13">
+        <v>69.95723346829801</v>
+      </c>
+      <c r="S13">
+        <v>0.01531549259203009</v>
+      </c>
+      <c r="T13">
+        <v>0.01531549259203009</v>
       </c>
     </row>
   </sheetData>
